--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="5400" windowWidth="19100" windowHeight="12220"/>
+    <workbookView xWindow="11740" yWindow="10300" windowWidth="19100" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>序号</t>
   </si>
@@ -67,9 +67,6 @@
     <t>微信200红包已发</t>
   </si>
   <si>
-    <t>21:00-00:00</t>
-  </si>
-  <si>
     <t>修改cervella软件功能性bug</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>14：00-18:00</t>
-  </si>
-  <si>
-    <t>21:00-22:00</t>
   </si>
   <si>
     <t>修改疗疗、医生端软件访问路径，打包上传疗疗软件</t>
@@ -112,6 +106,143 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <rPh sb="0" eb="1">
+      <t>jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-02:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <rPh sb="0" eb="1">
+      <t>shi chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10小时</t>
+    <rPh sb="2" eb="3">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5小时</t>
+    <rPh sb="3" eb="4">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡项目制作证书、修改打包问题、打包App、上传审核到AppStore；
+辅助探讨开发者账号添加的问题</t>
+    <rPh sb="0" eb="1">
+      <t>xin jia p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zheng sh</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>da b</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>da b</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shang ch</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shen he</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fu zhu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>tan tao</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zhang hao</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>de</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>wen ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,6 +330,12 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,23 +638,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -527,17 +664,20 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -547,15 +687,18 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -565,17 +708,20 @@
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -583,17 +729,20 @@
         <v>43283</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -601,17 +750,20 @@
         <v>43284</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -619,17 +771,20 @@
         <v>43295</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -637,17 +792,20 @@
         <v>43296</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -655,17 +813,20 @@
         <v>43302</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -673,17 +834,20 @@
         <v>43308</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -691,15 +855,38 @@
         <v>43318</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>43325</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="10300" windowWidth="19100" windowHeight="12220"/>
+    <workbookView xWindow="10620" yWindow="9720" windowWidth="19100" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>序号</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>9：00-14:00</t>
   </si>
   <si>
     <t>整理疗疗、医生端、扫码等IOS软件代码</t>
@@ -243,6 +240,73 @@
     </rPh>
     <rPh sb="50" eb="51">
       <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看医生端接口文档，确定接口添加字段</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi sheng duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen dang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>que ding</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zi duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查看医生端接口文档，确定接口添加字段
+2、修改cervella找回密码崩溃问题</t>
+    <rPh sb="23" eb="24">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhao hui mi ma</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>beng k</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付</t>
+    <rPh sb="0" eb="1">
+      <t>yi jing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -665,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -685,18 +749,20 @@
         <v>43269</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
@@ -706,19 +772,19 @@
         <v>43277</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -729,16 +795,16 @@
         <v>43283</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -750,16 +816,16 @@
         <v>43284</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -771,16 +837,16 @@
         <v>43295</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -792,16 +858,16 @@
         <v>43296</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -813,16 +879,16 @@
         <v>43302</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -834,16 +900,16 @@
         <v>43308</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -855,16 +921,16 @@
         <v>43318</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -876,16 +942,50 @@
         <v>43325</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>43327</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>43328</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="9720" windowWidth="19100" windowHeight="12220"/>
+    <workbookView xWindow="7120" yWindow="7160" windowWidth="19100" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>序号</t>
   </si>
@@ -307,6 +307,56 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查看疗疗失眠bug
+2、上传新加坡项目，修改打包
+3、修改心理健康云系统</t>
+    <rPh sb="2" eb="3">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liao liao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi mian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin jia p</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>da bao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xin l</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yun xi tong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -702,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -970,6 +1020,9 @@
       <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -986,6 +1039,29 @@
       </c>
       <c r="E13" s="10" t="s">
         <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43340</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>序号</t>
   </si>
@@ -357,6 +357,151 @@
     </rPh>
     <rPh sb="35" eb="36">
       <t>yun xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cervella证书制作，发布AHoc版本，用于测试</t>
+    <rPh sb="8" eb="9">
+      <t>zheng shu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi zuo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ban b</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yong yu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cervella 制作简单bug版本，发布testflight</t>
+    <rPh sb="9" eb="10">
+      <t>zhi zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian dan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ban ben</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fa bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5小时</t>
+    <rPh sb="3" eb="4">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看cervella安装情况</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an zhuang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qing kuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cervella 制作简单bug版本，发布testflight
+发布新加坡项目
+发布测试版本教程给张志斌</t>
+    <rPh sb="9" eb="10">
+      <t>zhi zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian dan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ban ben</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>xin jia p</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ban be</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>jiao cheng</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>zhang zhi bin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-23:00
+9:00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3小时
+5小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +595,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1062,6 +1210,77 @@
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43345</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>43348</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>43349</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="7160" windowWidth="19100" windowHeight="12220"/>
+    <workbookView xWindow="11580" yWindow="9740" windowWidth="19100" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>序号</t>
   </si>
@@ -361,10 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12:00-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6小时</t>
     <rPh sb="1" eb="2">
       <t>xiao shi</t>
@@ -490,11 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20:00-23:00
-9:00-14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3小时
 5小时</t>
     <rPh sb="1" eb="2">
@@ -502,6 +493,44 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-23:00
+9:00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改136-142bug</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cervella 制作完整版本，发布testflight</t>
+    <rPh sb="11" eb="12">
+      <t>wan zheng</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -900,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1220,13 +1249,13 @@
         <v>43345</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>23</v>
@@ -1240,16 +1269,19 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1257,16 +1289,19 @@
         <v>43348</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1274,13 +1309,53 @@
         <v>43349</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>43351</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>43353</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="9740" windowWidth="19100" windowHeight="12220"/>
+    <workbookView xWindow="13440" yWindow="4980" windowWidth="19100" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>序号</t>
   </si>
@@ -531,6 +531,144 @@
     <t>cervella 制作完整版本，发布testflight</t>
     <rPh sb="11" eb="12">
       <t>wan zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5小时</t>
+    <rPh sb="3" eb="4">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改美国提出的问题</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-17:00
+20:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7小时
+2.5小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查看疗疗失眠bug，发布心理云健康和扫码版软件
+2、查找扫码软件音乐不加载原因
+3、修改cervalla,bug,发布版本</t>
+    <rPh sb="2" eb="3">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liao liao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xin li</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yun jian kang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>he</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>sao ma</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ruan jian</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>cha zhao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>sao ma</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ruan jian</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yin yue</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>bu jia zai</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>yuan yin</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ban ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、发布修改邮箱发送问题，发布版本</t>
+    <rPh sb="2" eb="3">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you xiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ban ben</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -929,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1322,6 +1460,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="9">
         <v>43351</v>
       </c>
@@ -1340,7 +1481,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9">
         <v>43353</v>
@@ -1355,6 +1496,66 @@
         <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>43359</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>43360</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="4980" windowWidth="19100" windowHeight="12220"/>
+    <workbookView xWindow="8500" yWindow="5680" windowWidth="19100" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -669,6 +669,70 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>ban ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:31</t>
+  </si>
+  <si>
+    <t>2.6小时</t>
+    <rPh sb="3" eb="4">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、发布修改邮箱发送问题，查找原因</t>
+    <rPh sb="2" eb="3">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you xiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cha zhao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yuan yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、邮箱发送验证，发送成功，发布版本</t>
+    <rPh sb="2" eb="3">
+      <t>you xiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan zheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng gong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ban b</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,9 +1131,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1556,6 +1620,46 @@
         <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>43362</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>43363</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>序号</t>
   </si>
@@ -708,10 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>09:00-12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、邮箱发送验证，发送成功，发布版本</t>
     <rPh sb="2" eb="3">
       <t>you xiang</t>
@@ -733,6 +729,33 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>ban b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理Cervaller数据描述文件，用于注册FDA</t>
+    <rPh sb="0" eb="1">
+      <t>zheng l</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>miao shu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wen jian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yong yu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1131,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1651,15 +1674,35 @@
         <v>43363</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>43370</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>序号</t>
   </si>
@@ -756,6 +756,23 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>yong yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找airPrint，解决方法</t>
+    <rPh sb="0" eb="1">
+      <t>cha zhao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fang fa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1154,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1703,6 +1720,23 @@
         <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="9">
+        <v>43382</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>序号</t>
   </si>
@@ -773,6 +773,56 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>fang fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Help界面返回按钮，上传新版本</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xin ban ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Help界面返回按钮</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an niu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,6 +919,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1737,6 +1790,40 @@
         <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="9">
+        <v>43389</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="9">
+        <v>43390</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>序号</t>
   </si>
@@ -823,6 +823,36 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>an niu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传新版本5</t>
+    <rPh sb="0" eb="1">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin ban be</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改app版本官网状态</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ban ben</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan wang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhuang tai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1224,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1824,6 +1854,40 @@
         <v>82</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="9">
+        <v>43391</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="9">
+        <v>43392</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="5680" windowWidth="19100" windowHeight="12220"/>
+    <workbookView xWindow="8820" yWindow="5680" windowWidth="19100" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>序号</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>修改疗疗、医生端软件访问路径，打包上传疗疗软件</t>
-  </si>
-  <si>
-    <t>14:00-15:30</t>
   </si>
   <si>
     <t>修改疗疗失眠，上传到AppStore</t>
@@ -104,10 +101,6 @@
     <rPh sb="9" eb="10">
       <t>dao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:00-18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:00-11:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看医生端接口文档，确定接口添加字段</t>
     <rPh sb="0" eb="1">
       <t>cha kan</t>
@@ -277,10 +266,6 @@
   </si>
   <si>
     <t>9：00-14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:00-11:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,16 +658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20:00-22:31</t>
-  </si>
-  <si>
-    <t>2.6小时</t>
-    <rPh sb="3" eb="4">
-      <t>xiao shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、发布修改邮箱发送问题，查找原因</t>
     <rPh sb="2" eb="3">
       <t>fa bu</t>
@@ -853,6 +828,163 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>zhuang tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司加班费200未付</t>
+    <rPh sb="0" eb="1">
+      <t>gong si</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia ban</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fe</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月</t>
+    <rPh sb="0" eb="1">
+      <t>qi yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计1小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月</t>
+    <rPh sb="0" eb="1">
+      <t>ba yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计19.5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月</t>
+    <rPh sb="0" eb="1">
+      <t>jiu yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计45小时</t>
+    <rPh sb="0" eb="1">
+      <t>gong ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计费用4500元</t>
+    <rPh sb="2" eb="3">
+      <t>fei yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计费用1950元</t>
+    <rPh sb="0" eb="1">
+      <t>gong ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计费用1100元</t>
+    <rPh sb="2" eb="3">
+      <t>fei yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月</t>
+    <rPh sb="0" eb="1">
+      <t>shi yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">新加坡项目：
+1、无法注册；
+2、about和help页面，第一行内容都被隐藏了，要往下滑才能看到
+3、发布测试版本到fir上
+cervella项目：
+1、新的bug修改
+</t>
+    <rPh sb="0" eb="1">
+      <t>xin jia p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ban ben</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>xin de</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>xiu gai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1254,20 +1386,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1281,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1301,10 +1434,10 @@
         <v>43269</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -1313,7 +1446,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1327,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
@@ -1340,101 +1473,83 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>43283</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>43284</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>43295</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>43283</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>43296</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>43284</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>43302</v>
+        <v>43295</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -1442,453 +1557,588 @@
       <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>43308</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>43296</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43302</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>43308</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B14" s="5">
         <v>43318</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43325</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <v>43325</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>43327</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>43328</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
-        <v>43340</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9">
-        <v>43345</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="9">
-        <v>43347</v>
+        <v>43327</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="9">
-        <v>43348</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>53</v>
+        <v>43328</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" s="9">
-        <v>43349</v>
+        <v>43340</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9">
-        <v>43351</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="B19" s="9"/>
       <c r="D19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>88</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9">
-        <v>43353</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B21" s="9">
-        <v>43359</v>
+        <v>43345</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9">
+        <v>43347</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
-        <v>43360</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" s="9">
-        <v>43361</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>43348</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B24" s="9">
-        <v>43362</v>
+        <v>43349</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B25" s="9">
-        <v>43363</v>
+        <v>43351</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9">
+        <v>43353</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>20</v>
+      </c>
+      <c r="B27" s="9">
+        <v>43359</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9">
+        <v>43360</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>22</v>
+      </c>
+      <c r="B29" s="9">
+        <v>43361</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9">
+        <v>43362</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>24</v>
+      </c>
+      <c r="B31" s="9">
+        <v>43363</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B32" s="9">
         <v>43370</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="9"/>
+      <c r="D33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>26</v>
+      </c>
+      <c r="B35" s="9">
+        <v>43382</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>27</v>
+      </c>
+      <c r="B36" s="9">
+        <v>43389</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="F36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>28</v>
+      </c>
+      <c r="B37" s="9">
+        <v>43390</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>29</v>
+      </c>
+      <c r="B38" s="9">
+        <v>43390</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="9">
-        <v>43382</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="9">
-        <v>43389</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="F38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>30</v>
+      </c>
+      <c r="B39" s="9">
+        <v>43391</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="9">
-        <v>43390</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="9">
-        <v>43391</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="9">
+      <c r="F39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>31</v>
+      </c>
+      <c r="B40" s="9">
         <v>43392</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>23</v>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>序号</t>
   </si>
@@ -949,13 +949,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">新加坡项目：
+    <t>9:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡项目：
 1、无法注册；
 2、about和help页面，第一行内容都被隐藏了，要往下滑才能看到
 3、发布测试版本到fir上
 cervella项目：
-1、新的bug修改
-</t>
+1、新的bug修改</t>
     <rPh sb="0" eb="1">
       <t>xin jia p</t>
     </rPh>
@@ -985,6 +988,142 @@
     </rPh>
     <rPh sb="83" eb="84">
       <t>xiu gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cervella 代码同步，制作新版本，发布testflight</t>
+    <rPh sb="9" eb="10">
+      <t>dai ma</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tong bu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi zuo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin ban ben</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fa bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡项目
+1、无法注册，添加注册错误提示，添加注册成功后自动跳转到首页
+2、中文字段更改 3、性别显示不全 4、注册信息更改 5、制作版本上传至Fir.im
+公司Mac
+1、存储空间管理 2、更新最新软件</t>
+    <rPh sb="0" eb="1">
+      <t>xin jia p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cuo wu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ti shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>cheng gong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>tiao zhuan dao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>shou ye</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zhong wen</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zi duan</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>geng gai</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>xing bie</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>bu quqn</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>geng gai</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>zhi zuo</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ban ben</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>gong si</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>cun chu</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>guan li</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>zui xin</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ruan jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1386,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2124,7 +2263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="98" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="84" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>31</v>
       </c>
@@ -2138,7 +2277,50 @@
         <v>97</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>32</v>
+      </c>
+      <c r="B41" s="9">
+        <v>43393</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>33</v>
+      </c>
+      <c r="B42" s="9">
+        <v>43395</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="5680" windowWidth="19100" windowHeight="12220"/>
+    <workbookView xWindow="11220" yWindow="10280" windowWidth="19100" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>序号</t>
   </si>
@@ -1124,6 +1124,93 @@
     </rPh>
     <rPh sb="101" eb="102">
       <t>ruan jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改Cervella电量读取频率
+2、查找AirPrint 相关资料</t>
+    <rPh sb="2" eb="3">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dian liang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>du qu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>pin l</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>cha zhao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xiang guan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zi liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改新加坡项目bug，
+1、修改密码邮件收不到邮件
+2、添加解绑按钮
+3、修改unbinding，UI交互逻辑</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin jia p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>you jian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shou bu dao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>you jian</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jie bang</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>xiu ggai</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>jiao hu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>luo ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1525,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2320,6 +2407,46 @@
         <v>102</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>34</v>
+      </c>
+      <c r="B43" s="9">
+        <v>43397</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>36</v>
+      </c>
+      <c r="B44" s="9">
+        <v>43399</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="10280" windowWidth="19100" windowHeight="12220"/>
+    <workbookView xWindow="10940" yWindow="6100" windowWidth="19100" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
   <si>
     <t>序号</t>
   </si>
@@ -1211,6 +1211,89 @@
     </rPh>
     <rPh sb="53" eb="54">
       <t>luo ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改心理健康云系统APP
+2、修改Cervella新问题</t>
+    <rPh sb="2" eb="3">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yun xi tong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改心理健康云系统APP</t>
+    <rPh sb="2" eb="3">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yun xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、修改心理健康云系统APP
+2、查看证书，提示续费 </t>
+    <rPh sb="2" eb="3">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yun xi tong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zheng shu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ti shi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xu fei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1612,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2447,6 +2530,66 @@
         <v>107</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>37</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43402</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>38</v>
+      </c>
+      <c r="B46" s="9">
+        <v>43403</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>39</v>
+      </c>
+      <c r="B47" s="9">
+        <v>43404</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10940" yWindow="6100" windowWidth="19100" windowHeight="12220"/>
+    <workbookView xWindow="16200" yWindow="1600" windowWidth="23680" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
   <si>
     <t>序号</t>
   </si>
@@ -735,10 +735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:00-14:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查找airPrint，解决方法</t>
     <rPh sb="0" eb="1">
       <t>cha zhao</t>
@@ -749,14 +745,6 @@
     <rPh sb="13" eb="14">
       <t>fang fa</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:00-22:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1294,6 +1282,145 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>xu fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计66.5小时</t>
+    <rPh sb="0" eb="1">
+      <t>gong ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计费用6650元</t>
+    <rPh sb="0" eb="1">
+      <t>gong ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改心理健康云系统APP</t>
+    <rPh sb="2" eb="3">
+      <t>xiu g g i</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yun xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、修改心理健康云系统APP</t>
+    <rPh sb="2" eb="3">
+      <t>xiu g g i</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yun xi tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20：00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1修改cervaller上传并上传</t>
+    <rPh sb="1" eb="2">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、上架新加坡项目
+2、修改cervaller新问题
+3、查看心理健康云系统新问题</t>
+    <rPh sb="2" eb="3">
+      <t>shang jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin jia po</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xin wen ti</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xin l</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yun xi tong</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>xin wen ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:E53"/>
+    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1792,7 +1919,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
@@ -1821,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1844,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1867,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1890,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1913,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1942,17 +2069,17 @@
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -1969,7 +2096,7 @@
         <v>43318</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>31</v>
@@ -1990,7 +2117,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>28</v>
@@ -2010,7 +2137,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
@@ -2030,7 +2157,7 @@
         <v>43328</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>25</v>
@@ -2065,15 +2192,15 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="9"/>
       <c r="E20" s="10"/>
@@ -2266,7 +2393,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>46</v>
@@ -2321,15 +2448,15 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" s="9"/>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B34" s="9"/>
     </row>
@@ -2341,13 +2468,13 @@
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>21</v>
@@ -2361,13 +2488,13 @@
         <v>43389</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>21</v>
@@ -2381,13 +2508,13 @@
         <v>43390</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>21</v>
@@ -2407,7 +2534,7 @@
         <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>21</v>
@@ -2421,13 +2548,13 @@
         <v>43391</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>21</v>
@@ -2441,13 +2568,13 @@
         <v>43392</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>21</v>
@@ -2461,13 +2588,13 @@
         <v>43393</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>21</v>
@@ -2481,13 +2608,13 @@
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>21</v>
@@ -2501,13 +2628,13 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>21</v>
@@ -2521,13 +2648,13 @@
         <v>43399</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>21</v>
@@ -2541,13 +2668,13 @@
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>21</v>
@@ -2561,13 +2688,13 @@
         <v>43403</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>21</v>
@@ -2581,15 +2708,103 @@
         <v>43404</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>40</v>
+      </c>
+      <c r="B49" s="9">
+        <v>43405</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>41</v>
+      </c>
+      <c r="B50" s="9">
+        <v>43406</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>42</v>
+      </c>
+      <c r="B51" s="9">
+        <v>43407</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>43</v>
+      </c>
+      <c r="B52" s="9">
+        <v>43409</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="1600" windowWidth="23680" windowHeight="12540"/>
+    <workbookView xWindow="11140" yWindow="1980" windowWidth="23680" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
   <si>
     <t>序号</t>
   </si>
@@ -1422,6 +1422,186 @@
     <rPh sb="38" eb="39">
       <t>xin wen ti</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、清理公司电脑，更新最新系统，安装清理软件，便于软件管理
+2、修改cervaller命令冲突问题，测试硬件频率
+3、公司电脑搭建开发环境，建立远程交互</t>
+    <rPh sb="2" eb="3">
+      <t>qing l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong si</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dian nao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zui xin</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>an zhuang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>qing li</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ruan jian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bian yu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ruan jian</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>guan li</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xiu g</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ming ling</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>chong tu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ying jian</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>pin l</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>gong si</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>dian nao</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>da jian</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>huan jing</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>jian li</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>yuan cheng</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>jiao hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、发布新加坡项目
+2、修改心理健康云系统</t>
+    <rPh sb="2" eb="3">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin jia p</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiang m</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiu gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新加坡项目修改并上传到Appstore
+2、查问cervaller情况，查看问题所在
+3、修改心理健康云系统</t>
+    <rPh sb="7" eb="8">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shang chuan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wen</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>suo zai</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>xiu g g</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>xin li</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>yun xi ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00:-18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改心理健康云系统</t>
+    <rPh sb="2" eb="3">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yun xi ton</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1822,15 +2002,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
@@ -2729,40 +2909,25 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
-        <v>40</v>
-      </c>
-      <c r="B49" s="9">
-        <v>43405</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>21</v>
+      <c r="A49" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="9">
-        <v>43406</v>
+        <v>43405</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>21</v>
@@ -2770,41 +2935,138 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
+        <v>41</v>
+      </c>
+      <c r="B51" s="9">
+        <v>43406</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
         <v>42</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B52" s="9">
         <v>43407</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
+      <c r="F52" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
         <v>43</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B53" s="9">
         <v>43409</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>44</v>
+      </c>
+      <c r="B54" s="9">
+        <v>43410</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>45</v>
+      </c>
+      <c r="B55" s="9">
+        <v>43411</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>46</v>
+      </c>
+      <c r="B56" s="9">
+        <v>43412</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="9">
+        <v>43417</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YangMing/self/GitHub/NuoZhiJia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YangMing/Song/GitHub/NuoZhiJia/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="1980" windowWidth="23680" windowHeight="12540"/>
+    <workbookView xWindow="11120" yWindow="1720" windowWidth="23680" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="140">
   <si>
     <t>序号</t>
   </si>
@@ -1602,6 +1602,83 @@
   </si>
   <si>
     <t>十一月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00:-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Cervaller新版本上传版本</t>
+    <rPh sb="11" eb="12">
+      <t>xin ban b</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shang chuan ban ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计60小时</t>
+    <rPh sb="0" eb="1">
+      <t>gong ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计费用8000元</t>
+    <rPh sb="0" eb="1">
+      <t>gong ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目费用：2000元</t>
+    <rPh sb="0" eb="1">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时间</t>
+    <rPh sb="0" eb="1">
+      <t>fu kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款金额</t>
+    <rPh sb="0" eb="1">
+      <t>fu kuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3250元</t>
+    <rPh sb="4" eb="5">
+      <t>yuan</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1632,27 +1709,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1661,7 +1723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1670,24 +1732,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1699,6 +1743,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2002,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2016,284 +2084,311 @@
     <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="H1" s="7"/>
+      <c r="I1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>43269</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="H2" s="10"/>
+      <c r="I2">
+        <v>20181204</v>
+      </c>
+      <c r="J2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>43277</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="11">
         <v>43283</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="11">
         <v>43284</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="11">
         <v>43295</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="11">
         <v>43296</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="11">
         <v>43302</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="11">
         <v>43308</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="9">
         <v>43318</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="3">
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2302,18 +2397,18 @@
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="3">
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2333,7 +2428,7 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="3">
         <v>43328</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2342,7 +2437,7 @@
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2353,7 +2448,7 @@
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="3">
         <v>43340</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2362,7 +2457,7 @@
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2370,11 +2465,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="9"/>
+      <c r="B19" s="3"/>
       <c r="D19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2382,14 +2477,14 @@
       <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="3">
         <v>43345</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2409,7 +2504,7 @@
       <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="3">
         <v>43347</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2429,16 +2524,16 @@
       <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="3">
         <v>43348</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2449,7 +2544,7 @@
       <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="3">
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2469,7 +2564,7 @@
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="3">
         <v>43351</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2489,7 +2584,7 @@
       <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="3">
         <v>43353</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2509,7 +2604,7 @@
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="3">
         <v>43359</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2529,16 +2624,16 @@
       <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="3">
         <v>43360</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2549,7 +2644,7 @@
       <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="3">
         <v>43361</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2569,7 +2664,7 @@
       <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="3">
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2589,7 +2684,7 @@
       <c r="A31" s="1">
         <v>24</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="3">
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2609,7 +2704,7 @@
       <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="3">
         <v>43370</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2626,7 +2721,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="9"/>
+      <c r="B33" s="3"/>
       <c r="D33" s="1" t="s">
         <v>88</v>
       </c>
@@ -2638,13 +2733,13 @@
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>26</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="3">
         <v>43382</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2664,10 +2759,10 @@
       <c r="A36" s="1">
         <v>27</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="3">
         <v>43389</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2684,10 +2779,10 @@
       <c r="A37" s="1">
         <v>28</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="3">
         <v>43390</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2704,10 +2799,10 @@
       <c r="A38" s="1">
         <v>29</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="3">
         <v>43390</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2724,10 +2819,10 @@
       <c r="A39" s="1">
         <v>30</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="3">
         <v>43391</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2744,7 +2839,7 @@
       <c r="A40" s="1">
         <v>31</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="3">
         <v>43392</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2753,7 +2848,7 @@
       <c r="D40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="4" t="s">
         <v>96</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -2764,7 +2859,7 @@
       <c r="A41" s="1">
         <v>32</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="3">
         <v>43393</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2784,7 +2879,7 @@
       <c r="A42" s="1">
         <v>33</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="3">
         <v>43395</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2793,7 +2888,7 @@
       <c r="D42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="4" t="s">
         <v>99</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -2804,7 +2899,7 @@
       <c r="A43" s="1">
         <v>34</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="3">
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2813,7 +2908,7 @@
       <c r="D43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -2824,7 +2919,7 @@
       <c r="A44" s="1">
         <v>36</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="3">
         <v>43399</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2833,7 +2928,7 @@
       <c r="D44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="4" t="s">
         <v>104</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -2844,7 +2939,7 @@
       <c r="A45" s="1">
         <v>37</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="3">
         <v>43402</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2853,7 +2948,7 @@
       <c r="D45" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -2864,7 +2959,7 @@
       <c r="A46" s="1">
         <v>38</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="3">
         <v>43403</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2873,7 +2968,7 @@
       <c r="D46" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="4" t="s">
         <v>108</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -2884,7 +2979,7 @@
       <c r="A47" s="1">
         <v>39</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="3">
         <v>43404</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2893,7 +2988,7 @@
       <c r="D47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -2917,7 +3012,7 @@
       <c r="A50" s="1">
         <v>40</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="3">
         <v>43405</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2937,7 +3032,7 @@
       <c r="A51" s="1">
         <v>41</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="3">
         <v>43406</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2957,7 +3052,7 @@
       <c r="A52" s="1">
         <v>42</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="3">
         <v>43407</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2977,7 +3072,7 @@
       <c r="A53" s="1">
         <v>43</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="3">
         <v>43409</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2986,7 +3081,7 @@
       <c r="D53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="4" t="s">
         <v>124</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -2997,7 +3092,7 @@
       <c r="A54" s="1">
         <v>44</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="3">
         <v>43410</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3006,7 +3101,7 @@
       <c r="D54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -3017,7 +3112,7 @@
       <c r="A55" s="1">
         <v>45</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="3">
         <v>43411</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -3026,7 +3121,7 @@
       <c r="D55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="4" t="s">
         <v>127</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -3037,7 +3132,7 @@
       <c r="A56" s="1">
         <v>46</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="3">
         <v>43412</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -3046,7 +3141,7 @@
       <c r="D56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="4" t="s">
         <v>126</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -3054,20 +3149,54 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="9">
+      <c r="A57" s="1">
+        <v>47</v>
+      </c>
+      <c r="B57" s="3">
         <v>43417</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>48</v>
+      </c>
+      <c r="B58" s="3">
+        <v>43421</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11120" yWindow="1720" windowWidth="23680" windowHeight="12540"/>
+    <workbookView xWindow="7840" yWindow="5520" windowWidth="23680" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
   <si>
     <t>序号</t>
   </si>
@@ -1678,6 +1678,108 @@
     <t>3250元</t>
     <rPh sb="4" eb="5">
       <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月</t>
+    <rPh sb="0" eb="1">
+      <t>shi er</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看安卓和iOS治疗数据不一致问题</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an zhuo he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi liao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu yi zhi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改医生端APP，改回使用题目</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi sheng duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gai hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ti mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程APP查找，寻找远程控制方案</t>
+    <rPh sb="0" eb="1">
+      <t>yuan cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cha zhao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xun zhao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yuan cheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fang an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10小时</t>
+    <rPh sb="2" eb="3">
+      <t>xiao s</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2070,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3197,6 +3299,71 @@
       </c>
       <c r="E59" s="2" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>49</v>
+      </c>
+      <c r="B61" s="3">
+        <v>43441</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>50</v>
+      </c>
+      <c r="B62" s="3">
+        <v>43444</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>51</v>
+      </c>
+      <c r="B63" s="3">
+        <v>43445</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
   <si>
     <t>序号</t>
   </si>
@@ -1773,13 +1773,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9：00-20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10小时</t>
+    <t>9：00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改医生端其它问题</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t>xiao s</t>
+      <t>yi sheng duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改医生端APP，改回使用题目及其它问题</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi sheng duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gai hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ti mu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wen ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2172,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3357,12 +3419,52 @@
         <v>147</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>52</v>
+      </c>
+      <c r="B64" s="3">
+        <v>43446</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>53</v>
+      </c>
+      <c r="B65" s="3">
+        <v>43447</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
   <si>
     <t>序号</t>
   </si>
@@ -1777,10 +1777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13：00-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5小时</t>
     <rPh sb="1" eb="2">
       <t>xiao sh</t>
@@ -1792,6 +1788,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>修改医生端其它问题</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi sheng duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改医生端APP，改回使用题目及其它问题</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi sheng duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gai hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ti mu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>9小时</t>
     <rPh sb="1" eb="2">
       <t>xiao sh</t>
@@ -1799,50 +1857,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改医生端其它问题</t>
-    <rPh sb="0" eb="1">
-      <t>xiu gai</t>
+    <t>安装软件</t>
+    <rPh sb="0" eb="1">
+      <t>an zhuagn</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>yi sheng duan</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qi ta</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wen ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改医生端APP，改回使用题目及其它问题</t>
-    <rPh sb="0" eb="1">
-      <t>xiu gai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi sheng duan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>duan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gai hui</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi yong</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ti mu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>qi ta</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>wen ti</t>
-    </rPh>
+      <t>ruan jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17：00-18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2234,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3436,13 +3461,13 @@
         <v>43446</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>21</v>
@@ -3456,15 +3481,55 @@
         <v>43447</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F65" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>54</v>
+      </c>
+      <c r="B66" s="3">
+        <v>43448</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>55</v>
+      </c>
+      <c r="B67" s="3">
+        <v>43451</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="162">
   <si>
     <t>序号</t>
   </si>
@@ -1868,6 +1868,44 @@
   </si>
   <si>
     <t>17：00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改医生端其它问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-18:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、小程序账户信息修改
+2、真机安装调试</t>
+    <rPh sb="2" eb="3">
+      <t>xiao cheng xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhen ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>an zhuang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tiao shi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2259,10 +2297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3531,6 +3569,43 @@
       </c>
       <c r="F67" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>56</v>
+      </c>
+      <c r="B68" s="3">
+        <v>43452</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>57</v>
+      </c>
+      <c r="B69" s="3">
+        <v>43453</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/宋佳伟加班.xlsx
+++ b/宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="163">
   <si>
     <t>序号</t>
   </si>
@@ -1879,10 +1879,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13：00-18:01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、小程序账户信息修改
 2、真机安装调试</t>
     <rPh sb="2" eb="3">
@@ -1905,6 +1901,27 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>tiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、发票整理
+2、发放快递</t>
+    <rPh sb="2" eb="3">
+      <t>fa piao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fa fang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kuai di</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2297,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3596,16 +3613,39 @@
         <v>57</v>
       </c>
       <c r="B69" s="3">
-        <v>43453</v>
+        <v>43458</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>58</v>
+      </c>
+      <c r="B70" s="3">
+        <v>43459</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
